--- a/regions/12/soflis meurneoba/3. pirutkvis suladoba.xlsx
+++ b/regions/12/soflis meurneoba/3. pirutkvis suladoba.xlsx
@@ -5,21 +5,21 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ITSIKHELASHVILI\ENV_Shared\რეგიონული სტატისტიკის პორტალი\შიდა ქართლი\GEO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tsmelashvili\Desktop\რეგიონული სტატისტიკის პორტალი_2023\შიდა ქართლი\GEO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="15">
   <si>
     <t>-</t>
   </si>
@@ -92,11 +92,14 @@
       <t>: 2006-2015 წლების გამოკვლევების შერჩევის ბაზის ძირითად წყაროს წარმოადგენდა 2004 წლის სასოფლო-სამეურნეო აღწერა, ხოლო 2016-2021 წლების გამოკვლევის შერჩევის ბაზა განახლდა და დაეფუძნა 2014 წლის სასოფლო-სამეურნეო აღწერას. აღნიშნულიდან გამომდინარე, 2014-2021 წლების მაჩვენებლების შესადარისობის უზრუნველყოფის მიზნით,  განხორციელდა 2014 და 2015 წლების მონაცემების გადაანგარიშება. შესაბამისად, 2014-2021 წლების მონაცემები შესადარისი არ არის 2006-2013 წლების მონაცემებთან.</t>
     </r>
   </si>
+  <si>
+    <t>1 020.3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -185,7 +188,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -203,15 +206,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -244,13 +238,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -558,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y23"/>
+  <dimension ref="A1:Z23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:Q1"/>
+      <selection sqref="A1:S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -571,7 +565,7 @@
     <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="30" customHeight="1">
+    <row r="1" spans="1:26" ht="30" customHeight="1">
       <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
@@ -591,16 +585,17 @@
       <c r="O1" s="10"/>
       <c r="P1" s="10"/>
       <c r="Q1" s="10"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
       <c r="T1" s="2"/>
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
-    </row>
-    <row r="2" spans="1:25" ht="15" customHeight="1">
+      <c r="Z1" s="2"/>
+    </row>
+    <row r="2" spans="1:26" ht="15" customHeight="1">
       <c r="A2" s="5"/>
       <c r="B2" s="3">
         <v>2006</v>
@@ -650,16 +645,21 @@
       <c r="Q2" s="3">
         <v>2021</v>
       </c>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
+      <c r="R2" s="3">
+        <v>2022</v>
+      </c>
+      <c r="S2" s="3">
+        <v>2023</v>
+      </c>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
-    </row>
-    <row r="3" spans="1:25" ht="15" customHeight="1">
+      <c r="Z2" s="2"/>
+    </row>
+    <row r="3" spans="1:26" ht="15" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
@@ -711,16 +711,21 @@
       <c r="Q3" s="4">
         <v>51.6</v>
       </c>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
+      <c r="R3" s="4">
+        <v>50.8</v>
+      </c>
+      <c r="S3" s="4">
+        <v>52.2</v>
+      </c>
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
-    </row>
-    <row r="4" spans="1:25" ht="15" customHeight="1">
+      <c r="Z3" s="2"/>
+    </row>
+    <row r="4" spans="1:26" ht="15" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
@@ -772,16 +777,21 @@
       <c r="Q4" s="4">
         <v>27.4</v>
       </c>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
+      <c r="R4" s="4">
+        <v>25.9</v>
+      </c>
+      <c r="S4" s="4">
+        <v>26.7</v>
+      </c>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
-    </row>
-    <row r="5" spans="1:25" ht="15" customHeight="1">
+      <c r="Z4" s="2"/>
+    </row>
+    <row r="5" spans="1:26" ht="15" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
@@ -833,16 +843,21 @@
       <c r="Q5" s="4">
         <v>10.5</v>
       </c>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
+      <c r="R5" s="4">
+        <v>9.4</v>
+      </c>
+      <c r="S5" s="4">
+        <v>4.8</v>
+      </c>
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
-    </row>
-    <row r="6" spans="1:25" ht="15" customHeight="1">
+      <c r="Z5" s="2"/>
+    </row>
+    <row r="6" spans="1:26" ht="15" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
@@ -894,16 +909,21 @@
       <c r="Q6" s="4">
         <v>1.8</v>
       </c>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
+      <c r="R6" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="S6" s="4">
+        <v>0.6</v>
+      </c>
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
       <c r="Y6" s="2"/>
-    </row>
-    <row r="7" spans="1:25" ht="15" customHeight="1">
+      <c r="Z6" s="2"/>
+    </row>
+    <row r="7" spans="1:26" ht="15" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -955,16 +975,21 @@
       <c r="Q7" s="4">
         <v>30.7</v>
       </c>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
+      <c r="R7" s="4">
+        <v>28.9</v>
+      </c>
+      <c r="S7" s="4">
+        <v>19.600000000000001</v>
+      </c>
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
       <c r="Y7" s="2"/>
-    </row>
-    <row r="8" spans="1:25" ht="15" customHeight="1">
+      <c r="Z7" s="2"/>
+    </row>
+    <row r="8" spans="1:26" ht="15" customHeight="1">
       <c r="A8" s="5" t="s">
         <v>8</v>
       </c>
@@ -1016,16 +1041,21 @@
       <c r="Q8" s="4">
         <v>23.1</v>
       </c>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
+      <c r="R8" s="4">
+        <v>20.3</v>
+      </c>
+      <c r="S8" s="4">
+        <v>13.5</v>
+      </c>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
       <c r="Y8" s="2"/>
-    </row>
-    <row r="9" spans="1:25" ht="15" customHeight="1">
+      <c r="Z8" s="2"/>
+    </row>
+    <row r="9" spans="1:26" ht="15" customHeight="1">
       <c r="A9" s="5" t="s">
         <v>9</v>
       </c>
@@ -1077,16 +1107,19 @@
       <c r="Q9" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
+      <c r="R9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="S9" s="4"/>
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
-    </row>
-    <row r="10" spans="1:25" ht="15" customHeight="1">
+      <c r="Z9" s="2"/>
+    </row>
+    <row r="10" spans="1:26" ht="15" customHeight="1">
       <c r="A10" s="5" t="s">
         <v>10</v>
       </c>
@@ -1138,16 +1171,19 @@
       <c r="Q10" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
+      <c r="R10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="S10" s="4"/>
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
-    </row>
-    <row r="11" spans="1:25" ht="15" customHeight="1">
+      <c r="Z10" s="2"/>
+    </row>
+    <row r="11" spans="1:26" ht="15" customHeight="1">
       <c r="A11" s="5" t="s">
         <v>11</v>
       </c>
@@ -1199,16 +1235,21 @@
       <c r="Q11" s="4">
         <v>660.2</v>
       </c>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
+      <c r="R11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="S11" s="4">
+        <v>826.3</v>
+      </c>
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
-    </row>
-    <row r="12" spans="1:25" ht="15" customHeight="1">
+      <c r="Z11" s="2"/>
+    </row>
+    <row r="12" spans="1:26" ht="15" customHeight="1">
       <c r="A12" s="5" t="s">
         <v>12</v>
       </c>
@@ -1260,16 +1301,21 @@
       <c r="Q12" s="4">
         <v>10.199999999999999</v>
       </c>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
+      <c r="R12" s="4">
+        <v>9.4</v>
+      </c>
+      <c r="S12" s="4">
+        <v>8.4</v>
+      </c>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
       <c r="Y12" s="2"/>
-    </row>
-    <row r="13" spans="1:25" s="6" customFormat="1" ht="15" customHeight="1">
+      <c r="Z12" s="2"/>
+    </row>
+    <row r="13" spans="1:26" s="6" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="8" t="s">
         <v>1</v>
       </c>
@@ -1290,7 +1336,7 @@
       <c r="P13" s="8"/>
       <c r="Q13" s="8"/>
     </row>
-    <row r="14" spans="1:25" s="7" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="14" spans="1:26" s="7" customFormat="1" ht="39.950000000000003" customHeight="1">
       <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
@@ -1311,7 +1357,7 @@
       <c r="P14" s="9"/>
       <c r="Q14" s="9"/>
     </row>
-    <row r="15" spans="1:25" ht="15.75">
+    <row r="15" spans="1:26" ht="15.75">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1337,8 +1383,9 @@
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
       <c r="Y15" s="2"/>
-    </row>
-    <row r="16" spans="1:25" ht="15.75">
+      <c r="Z15" s="2"/>
+    </row>
+    <row r="16" spans="1:26" ht="15.75">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1364,8 +1411,9 @@
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
       <c r="Y16" s="2"/>
-    </row>
-    <row r="17" spans="1:25" ht="15.75">
+      <c r="Z16" s="2"/>
+    </row>
+    <row r="17" spans="1:26" ht="15.75">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1391,8 +1439,9 @@
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
       <c r="Y17" s="2"/>
-    </row>
-    <row r="18" spans="1:25" ht="15.75">
+      <c r="Z17" s="2"/>
+    </row>
+    <row r="18" spans="1:26" ht="15.75">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1418,8 +1467,9 @@
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
       <c r="Y18" s="2"/>
-    </row>
-    <row r="19" spans="1:25" ht="15.75">
+      <c r="Z18" s="2"/>
+    </row>
+    <row r="19" spans="1:26" ht="15.75">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1445,8 +1495,9 @@
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
       <c r="Y19" s="2"/>
-    </row>
-    <row r="20" spans="1:25" ht="15.75">
+      <c r="Z19" s="2"/>
+    </row>
+    <row r="20" spans="1:26" ht="15.75">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -1472,8 +1523,9 @@
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
       <c r="Y20" s="2"/>
-    </row>
-    <row r="21" spans="1:25" ht="15.75">
+      <c r="Z20" s="2"/>
+    </row>
+    <row r="21" spans="1:26" ht="15.75">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1499,8 +1551,9 @@
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
       <c r="Y21" s="2"/>
-    </row>
-    <row r="22" spans="1:25" ht="15.75">
+      <c r="Z21" s="2"/>
+    </row>
+    <row r="22" spans="1:26" ht="15.75">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1526,8 +1579,9 @@
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
       <c r="Y22" s="2"/>
-    </row>
-    <row r="23" spans="1:25" ht="15.75">
+      <c r="Z22" s="2"/>
+    </row>
+    <row r="23" spans="1:26" ht="15.75">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1553,12 +1607,13 @@
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
       <c r="Y23" s="2"/>
+      <c r="Z23" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A13:Q13"/>
     <mergeCell ref="A14:Q14"/>
+    <mergeCell ref="A1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
